--- a/medicine/Psychotrope/Kirsch/Kirsch.xlsx
+++ b/medicine/Psychotrope/Kirsch/Kirsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kirsch est une eau-de-vie obtenue par simple ou double distillation de cerises fermentées, pulpes, jus et noyaux. Il titre entre 40 et 60° d'alcool.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot kirsch vient de l'allemand Kirsche qui signifie cerise.
 </t>
@@ -542,7 +556,9 @@
           <t>Popularité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les alcools blancs obtenus par distillation de fruits sont très populaires en Allemagne, en Autriche, en Belgique germanophone, au Luxembourg, en France (Alsace, Franche-Comté, Lorraine, Pays de Savoie, Périgord) et en Suisse. Dans les pays et régions germanophones il est considéré comme une forme de schnaps. Le schnaps est l'eau-de-vie obtenue par la distillation de plusieurs fruits. Le kirsch peut être utilisé pour la préparation de la fondue au fromage.
 </t>
@@ -573,10 +589,12 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appellation kirsch suisse est protégée par la loi. Les Zuger Kirsch AOP et Rigi Kirsch AOP sont deux appellations d'origine protégées suisses[1].
-En 2009, quarante-et-un ans après la première demande, le kirsch de Fougerolles devient la première eau-de-vie de fruits à noyau à obtenir une appellation d'origine contrôlée en France[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation kirsch suisse est protégée par la loi. Les Zuger Kirsch AOP et Rigi Kirsch AOP sont deux appellations d'origine protégées suisses.
+En 2009, quarante-et-un ans après la première demande, le kirsch de Fougerolles devient la première eau-de-vie de fruits à noyau à obtenir une appellation d'origine contrôlée en France.
 </t>
         </is>
       </c>
